--- a/Experiments/Measurements/Single Banner Vertical/V path/Antenna_1/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Vertical/V path/Antenna_1/Transformed_Coordinates.xlsx
@@ -502,7 +502,7 @@
         <v>128.3384255354134</v>
       </c>
       <c r="H2" t="n">
-        <v>42.60582785053911</v>
+        <v>42.60582785053912</v>
       </c>
     </row>
     <row r="3">
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>68.62524318094844</v>
+        <v>68.62524318094846</v>
       </c>
       <c r="H5" t="n">
-        <v>44.33805870801359</v>
+        <v>44.33805870801357</v>
       </c>
     </row>
     <row r="6">
@@ -648,7 +648,7 @@
         <v>60.58714329544097</v>
       </c>
       <c r="H7" t="n">
-        <v>48.91065767119205</v>
+        <v>48.91065767119208</v>
       </c>
     </row>
     <row r="8">
@@ -678,7 +678,7 @@
         <v>128.4138850175867</v>
       </c>
       <c r="H8" t="n">
-        <v>33.65421670290369</v>
+        <v>33.6542167029037</v>
       </c>
     </row>
     <row r="9">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>68.61343064309189</v>
+        <v>68.6134306430919</v>
       </c>
       <c r="H11" t="n">
-        <v>35.86548820153777</v>
+        <v>35.86548820153775</v>
       </c>
     </row>
     <row r="12">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>68.52935453074808</v>
+        <v>68.52935453074809</v>
       </c>
       <c r="H12" t="n">
         <v>53.11496384790328</v>
@@ -828,7 +828,7 @@
         <v>45.96057334598896</v>
       </c>
       <c r="H13" t="n">
-        <v>65.19655849390001</v>
+        <v>65.19655849390003</v>
       </c>
     </row>
     <row r="14">
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>62.62624966957086</v>
+        <v>62.62624966957088</v>
       </c>
       <c r="H17" t="n">
-        <v>79.97820120523465</v>
+        <v>79.97820120523464</v>
       </c>
     </row>
     <row r="18">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>25.23498198343233</v>
+        <v>25.23498198343235</v>
       </c>
       <c r="H18" t="n">
         <v>107.8221737367982</v>
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>99.25592402425654</v>
+        <v>99.25592402425652</v>
       </c>
       <c r="H20" t="n">
         <v>146.4053137986415</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>45.33757729545612</v>
+        <v>45.33757729545614</v>
       </c>
       <c r="H23" t="n">
         <v>132.4762863098637</v>
@@ -1158,7 +1158,7 @@
         <v>21.33985057516054</v>
       </c>
       <c r="H24" t="n">
-        <v>87.39894115181066</v>
+        <v>87.39894115181073</v>
       </c>
     </row>
     <row r="25">
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>54.66488861359031</v>
+        <v>54.66488861359029</v>
       </c>
       <c r="H25" t="n">
         <v>143.3478850105494</v>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>39.37160363113572</v>
+        <v>39.37160363113577</v>
       </c>
       <c r="H26" t="n">
         <v>156.4334082377507</v>
@@ -1248,7 +1248,7 @@
         <v>19.58923847486876</v>
       </c>
       <c r="H27" t="n">
-        <v>143.8207238571489</v>
+        <v>143.820723857149</v>
       </c>
     </row>
     <row r="28">
@@ -1335,10 +1335,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>98.39805691011493</v>
+        <v>98.3980569101149</v>
       </c>
       <c r="H30" t="n">
-        <v>29.70829078893762</v>
+        <v>29.70829078893767</v>
       </c>
     </row>
     <row r="31">
@@ -1365,10 +1365,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>93.63010371866056</v>
+        <v>93.63010371866058</v>
       </c>
       <c r="H31" t="n">
-        <v>30.91069218885808</v>
+        <v>30.91069218885805</v>
       </c>
     </row>
     <row r="32">
@@ -1395,10 +1395,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>78.05206462077831</v>
+        <v>78.0520646207783</v>
       </c>
       <c r="H32" t="n">
-        <v>61.35167229226117</v>
+        <v>61.35167229226118</v>
       </c>
     </row>
     <row r="33">
@@ -1425,10 +1425,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>78.59280051236202</v>
+        <v>78.592800512362</v>
       </c>
       <c r="H33" t="n">
-        <v>30.72242232566328</v>
+        <v>30.7224223256633</v>
       </c>
     </row>
     <row r="34">
@@ -1458,7 +1458,7 @@
         <v>113.5508215479363</v>
       </c>
       <c r="H34" t="n">
-        <v>30.13135682147425</v>
+        <v>30.1313568214742</v>
       </c>
     </row>
     <row r="35">
@@ -1488,7 +1488,7 @@
         <v>107.7030123877353</v>
       </c>
       <c r="H35" t="n">
-        <v>35.33634096426752</v>
+        <v>35.33634096426748</v>
       </c>
     </row>
     <row r="36">
@@ -1515,10 +1515,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>39.51382127632221</v>
+        <v>39.5138212763222</v>
       </c>
       <c r="H36" t="n">
-        <v>68.04179943395421</v>
+        <v>68.04179943395427</v>
       </c>
     </row>
     <row r="37">
@@ -1548,7 +1548,7 @@
         <v>103.4355742612159</v>
       </c>
       <c r="H37" t="n">
-        <v>40.77768249147808</v>
+        <v>40.7776824914781</v>
       </c>
     </row>
     <row r="38">
@@ -1608,7 +1608,7 @@
         <v>103.5291547676851</v>
       </c>
       <c r="H39" t="n">
-        <v>61.6234579599645</v>
+        <v>61.62345795996448</v>
       </c>
     </row>
     <row r="40">
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>78.49515959842699</v>
+        <v>78.49515959842698</v>
       </c>
       <c r="H40" t="n">
-        <v>45.05653344669639</v>
+        <v>45.05653344669641</v>
       </c>
     </row>
     <row r="41">
@@ -1668,7 +1668,7 @@
         <v>118.5665767288546</v>
       </c>
       <c r="H41" t="n">
-        <v>40.25769353333437</v>
+        <v>40.25769353333434</v>
       </c>
     </row>
     <row r="42">
@@ -1698,7 +1698,7 @@
         <v>81.20293015439687</v>
       </c>
       <c r="H42" t="n">
-        <v>73.87911914205544</v>
+        <v>73.87911914205547</v>
       </c>
     </row>
     <row r="43">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>93.54158844551228</v>
+        <v>93.54158844551229</v>
       </c>
       <c r="H43" t="n">
-        <v>52.49673205585014</v>
+        <v>52.49673205585012</v>
       </c>
     </row>
     <row r="44">
@@ -1785,7 +1785,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>118.3850256084816</v>
+        <v>118.3850256084817</v>
       </c>
       <c r="H45" t="n">
         <v>107.1265443539043</v>
@@ -1815,7 +1815,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>72.2497086841298</v>
+        <v>72.24970868412976</v>
       </c>
       <c r="H46" t="n">
         <v>130.7648192988202</v>
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>59.59551170673343</v>
+        <v>59.59551170673341</v>
       </c>
       <c r="H47" t="n">
-        <v>85.87204867027933</v>
+        <v>85.87204867027936</v>
       </c>
     </row>
     <row r="48">
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>68.34578001395572</v>
+        <v>68.3457800139557</v>
       </c>
       <c r="H48" t="n">
-        <v>88.58892811837804</v>
+        <v>88.58892811837805</v>
       </c>
     </row>
     <row r="49">
@@ -1905,10 +1905,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>62.2786699451807</v>
+        <v>62.27866994518071</v>
       </c>
       <c r="H49" t="n">
-        <v>99.41335466935647</v>
+        <v>99.41335466935642</v>
       </c>
     </row>
     <row r="50">
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>98.46959499650316</v>
+        <v>98.46959499650313</v>
       </c>
       <c r="H50" t="n">
-        <v>97.84258721667591</v>
+        <v>97.84258721667592</v>
       </c>
     </row>
     <row r="51">
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>19.99298781157425</v>
+        <v>19.9929878115743</v>
       </c>
       <c r="H51" t="n">
         <v>122.6478987990256</v>
